--- a/Driver List - Ellington Flo.xlsx
+++ b/Driver List - Ellington Flo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christa_lee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9616BD5-2EEA-487A-A163-8D07DE2714C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC6C573-E388-4738-8971-8039118B86D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{A7ED4D37-274D-4F93-8C00-ADFA32CD904E}"/>
   </bookViews>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D4A9B5-EE56-4048-9CA1-591345B89A63}">
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.73046875" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1097,7 +1097,7 @@
     <col min="3" max="3" width="15.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="36.06640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>

--- a/Driver List - Ellington Flo.xlsx
+++ b/Driver List - Ellington Flo.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christa_lee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C4A918-2FA9-4422-9904-95387C52111D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FEB90-CF77-4A25-B221-BBE10533CDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{A7ED4D37-274D-4F93-8C00-ADFA32CD904E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$P$93</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="154">
   <si>
     <t xml:space="preserve">add on /on board </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -585,13 +588,60 @@
   <si>
     <t>525.105.17</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectX-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXV710</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -E "A100"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -E "A40"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASPEED</t>
+  </si>
+  <si>
+    <t>ConnectX-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -630,6 +680,13 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -694,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +823,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,10 +1174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E783A0BD-8926-4773-940C-CA31E64305B3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="124" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.46484375" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1094,18 +1188,18 @@
     <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.06640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.796875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="44.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,8 +1242,11 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O1" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1190,8 +1287,11 @@
       <c r="N2" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O2" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1232,8 +1332,11 @@
       <c r="N3" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O3" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1274,8 +1377,11 @@
       <c r="N4" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O4" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1316,8 +1422,11 @@
       <c r="N5" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O5" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1358,8 +1467,11 @@
       <c r="N6" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O6" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1400,8 +1512,11 @@
       <c r="N7" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O7" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1442,8 +1557,11 @@
       <c r="N8" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O8" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1600,11 @@
       <c r="N9" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O9" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1522,8 +1643,11 @@
       <c r="N10" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O10" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1562,8 +1686,11 @@
       <c r="N11" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O11" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1602,8 +1729,11 @@
       <c r="N12" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O12" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1642,8 +1772,11 @@
       <c r="N13" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O13" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1817,11 @@
       <c r="N14" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O14" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1726,8 +1862,11 @@
       <c r="N15" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O15" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1768,8 +1907,11 @@
       <c r="N16" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O16" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1810,8 +1952,11 @@
       <c r="N17" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O17" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1850,8 +1995,11 @@
       <c r="N18" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O18" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -1890,8 +2038,11 @@
       <c r="N19" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O19" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1930,8 +2081,11 @@
       <c r="N20" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O20" s="25">
+        <v>9670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
@@ -1970,31 +2124,34 @@
       <c r="N21" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="O21" s="25">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="28">
         <v>9.1</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -2004,14 +2161,17 @@
         <v>23</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O22" s="25">
+        <v>9670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -2050,31 +2210,34 @@
       <c r="N23" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+      <c r="O23" s="25">
+        <v>9670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="33">
         <v>9.1</v>
       </c>
       <c r="J24" s="6" t="s">
@@ -2086,12 +2249,15 @@
       <c r="L24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="13" t="s">
+      <c r="M24" s="30"/>
+      <c r="N24" s="32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O24" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -2132,31 +2298,32 @@
       <c r="N25" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="14"/>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="33">
         <v>20.04</v>
       </c>
       <c r="J26" s="6">
@@ -2168,14 +2335,16 @@
       <c r="L26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O26" s="24"/>
+      <c r="P26" s="31"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
@@ -2214,8 +2383,11 @@
       <c r="N27" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O27" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -2256,8 +2428,9 @@
       <c r="N28" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O28" s="26"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -2296,8 +2469,11 @@
       <c r="N29" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O29" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -2336,8 +2512,11 @@
       <c r="N30" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O30" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -2378,8 +2557,9 @@
       <c r="N31" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O31" s="26"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -2418,8 +2598,11 @@
       <c r="N32" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O32" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -2458,8 +2641,11 @@
       <c r="N33" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O33" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -2500,8 +2686,9 @@
       <c r="N34" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O34" s="26"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>70</v>
       </c>
@@ -2540,8 +2727,11 @@
       <c r="N35" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O35" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>70</v>
       </c>
@@ -2580,8 +2770,11 @@
       <c r="N36" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O36" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
@@ -2622,8 +2815,9 @@
       <c r="N37" s="18" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O37" s="26"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2664,8 +2858,11 @@
       <c r="N38" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O38" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>14</v>
       </c>
@@ -2706,8 +2903,11 @@
       <c r="N39" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O39" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>14</v>
       </c>
@@ -2748,8 +2948,11 @@
       <c r="N40" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O40" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>14</v>
       </c>
@@ -2790,8 +2993,11 @@
       <c r="N41" s="17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O41" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
@@ -2832,8 +3038,11 @@
       <c r="N42" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O42" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
@@ -2874,8 +3083,11 @@
       <c r="N43" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O43" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>14</v>
       </c>
@@ -2916,8 +3128,11 @@
       <c r="N44" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O44" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>14</v>
       </c>
@@ -2958,8 +3173,11 @@
       <c r="N45" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O45" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>14</v>
       </c>
@@ -2998,8 +3216,9 @@
       <c r="N46" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O46" s="26"/>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>14</v>
       </c>
@@ -3038,8 +3257,9 @@
       <c r="N47" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O47" s="26"/>
+    </row>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>14</v>
       </c>
@@ -3078,8 +3298,9 @@
       <c r="N48" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O48" s="26"/>
+    </row>
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>14</v>
       </c>
@@ -3118,8 +3339,9 @@
       <c r="N49" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O49" s="26"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>14</v>
       </c>
@@ -3158,8 +3380,11 @@
       <c r="N50" s="17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O50" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>14</v>
       </c>
@@ -3200,8 +3425,11 @@
       <c r="N51" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O51" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>14</v>
       </c>
@@ -3242,33 +3470,36 @@
       <c r="N52" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="O52" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A53" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="30" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="28">
         <v>22.04</v>
       </c>
       <c r="J53" s="16" t="s">
@@ -3278,14 +3509,17 @@
         <v>23</v>
       </c>
       <c r="L53" s="7"/>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="N53" s="17" t="s">
+      <c r="N53" s="25" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O53" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>14</v>
       </c>
@@ -3326,8 +3560,11 @@
       <c r="N54" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O54" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>14</v>
       </c>
@@ -3366,8 +3603,9 @@
       <c r="N55" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O55" s="26"/>
+    </row>
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>14</v>
       </c>
@@ -3406,8 +3644,9 @@
       <c r="N56" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O56" s="26"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>14</v>
       </c>
@@ -3446,8 +3685,11 @@
       <c r="N57" s="20" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O57" s="25">
+        <v>9670</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>14</v>
       </c>
@@ -3486,8 +3728,11 @@
       <c r="N58" s="20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O58" s="25">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>14</v>
       </c>
@@ -3526,8 +3771,11 @@
       <c r="N59" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O59" s="25">
+        <v>9670</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>14</v>
       </c>
@@ -3566,8 +3814,9 @@
       <c r="N60" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O60" s="26"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>70</v>
       </c>
@@ -3606,8 +3855,11 @@
       <c r="N61" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O61" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>70</v>
       </c>
@@ -3648,8 +3900,9 @@
       <c r="N62" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O62" s="26"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>70</v>
       </c>
@@ -3690,8 +3943,11 @@
       <c r="N63" s="20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O63" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>70</v>
       </c>
@@ -3730,8 +3986,11 @@
       <c r="N64" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="O64" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>70</v>
       </c>
@@ -3772,6 +4031,7 @@
       <c r="N65" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="O65" s="26"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
@@ -3812,6 +4072,9 @@
       <c r="N66" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="O66" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
@@ -3852,8 +4115,11 @@
       <c r="N67" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="O67" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -3894,6 +4160,7 @@
       <c r="N68" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="O68" s="26"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
@@ -3934,6 +4201,9 @@
       <c r="N69" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="O69" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
@@ -3974,8 +4244,11 @@
       <c r="N70" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="O70" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
@@ -4016,6 +4289,7 @@
       <c r="N71" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="O71" s="26"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
@@ -4056,6 +4330,9 @@
       <c r="N72" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="O72" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
@@ -4096,8 +4373,11 @@
       <c r="N73" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="O73" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>70</v>
       </c>
@@ -4138,6 +4418,7 @@
       <c r="N74" s="18" t="s">
         <v>99</v>
       </c>
+      <c r="O74" s="26"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
@@ -4180,6 +4461,9 @@
       <c r="N75" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="O75" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
@@ -4222,35 +4506,37 @@
       <c r="N76" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="O76" s="21"/>
+      <c r="O76" s="24" t="s">
+        <v>150</v>
+      </c>
       <c r="P76" s="22"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="6" t="s">
+      <c r="A77" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="30" t="s">
         <v>45</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="28">
         <v>9.1999999999999993</v>
       </c>
       <c r="J77" s="6" t="s">
@@ -4260,41 +4546,43 @@
         <v>124</v>
       </c>
       <c r="L77" s="7"/>
-      <c r="M77" s="7" t="s">
+      <c r="M77" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="N77" s="17" t="s">
+      <c r="N77" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="O77" s="21"/>
+      <c r="O77" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="P77" s="22"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="6" t="s">
+      <c r="A78" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="30" t="s">
         <v>45</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="28">
         <v>9.1999999999999993</v>
       </c>
       <c r="J78" s="6" t="s">
@@ -4304,41 +4592,43 @@
         <v>124</v>
       </c>
       <c r="L78" s="7"/>
-      <c r="M78" s="7" t="s">
+      <c r="M78" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="N78" s="17" t="s">
+      <c r="N78" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="O78" s="21"/>
+      <c r="O78" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="P78" s="22"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="6" t="s">
+      <c r="A79" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="30" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="28" t="s">
         <v>129</v>
       </c>
       <c r="J79" s="6" t="s">
@@ -4348,41 +4638,43 @@
         <v>124</v>
       </c>
       <c r="L79" s="22"/>
-      <c r="M79" s="7" t="s">
+      <c r="M79" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="N79" s="17" t="s">
+      <c r="N79" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="O79" s="21"/>
+      <c r="O79" s="24" t="s">
+        <v>150</v>
+      </c>
       <c r="P79" s="22"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="A80" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="30" t="s">
         <v>45</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="28" t="s">
         <v>129</v>
       </c>
       <c r="J80" s="6" t="s">
@@ -4392,41 +4684,43 @@
         <v>124</v>
       </c>
       <c r="L80" s="7"/>
-      <c r="M80" s="7" t="s">
+      <c r="M80" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="N80" s="17" t="s">
+      <c r="N80" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="O80" s="21"/>
+      <c r="O80" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="P80" s="22"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="6" t="s">
+      <c r="A81" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="30" t="s">
         <v>45</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="28" t="s">
         <v>129</v>
       </c>
       <c r="J81" s="6" t="s">
@@ -4436,13 +4730,15 @@
         <v>124</v>
       </c>
       <c r="L81" s="7"/>
-      <c r="M81" s="7" t="s">
+      <c r="M81" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="N81" s="17" t="s">
+      <c r="N81" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="O81" s="21"/>
+      <c r="O81" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="P81" s="22"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
@@ -4486,7 +4782,9 @@
       <c r="N82" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="O82" s="21"/>
+      <c r="O82" s="24" t="s">
+        <v>143</v>
+      </c>
       <c r="P82" s="22"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
@@ -4530,35 +4828,37 @@
       <c r="N83" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="O83" s="21"/>
+      <c r="O83" s="24" t="s">
+        <v>143</v>
+      </c>
       <c r="P83" s="22"/>
     </row>
-    <row r="84" spans="1:16" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="6" t="s">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A84" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="30" t="s">
         <v>18</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="28">
         <v>9.1999999999999993</v>
       </c>
       <c r="J84" s="6" t="s">
@@ -4568,41 +4868,43 @@
         <v>124</v>
       </c>
       <c r="L84" s="7"/>
-      <c r="M84" s="7" t="s">
+      <c r="M84" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="N84" s="17" t="s">
+      <c r="N84" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="O84" s="21"/>
+      <c r="O84" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="P84" s="22"/>
     </row>
-    <row r="85" spans="1:16" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="6" t="s">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A85" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="30" t="s">
         <v>18</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="28">
         <v>9.1999999999999993</v>
       </c>
       <c r="J85" s="6" t="s">
@@ -4612,13 +4914,15 @@
         <v>124</v>
       </c>
       <c r="L85" s="7"/>
-      <c r="M85" s="7" t="s">
+      <c r="M85" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="N85" s="17" t="s">
+      <c r="N85" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="O85" s="21"/>
+      <c r="O85" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="P85" s="22"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
@@ -4662,7 +4966,9 @@
       <c r="N86" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="O86" s="21"/>
+      <c r="O86" s="24" t="s">
+        <v>143</v>
+      </c>
       <c r="P86" s="22"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
@@ -4706,35 +5012,37 @@
       <c r="N87" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="O87" s="21"/>
+      <c r="O87" s="24" t="s">
+        <v>143</v>
+      </c>
       <c r="P87" s="22"/>
     </row>
-    <row r="88" spans="1:16" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="6" t="s">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A88" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="30" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I88" s="28" t="s">
         <v>129</v>
       </c>
       <c r="J88" s="6" t="s">
@@ -4744,41 +5052,43 @@
         <v>124</v>
       </c>
       <c r="L88" s="7"/>
-      <c r="M88" s="7" t="s">
+      <c r="M88" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="N88" s="17" t="s">
+      <c r="N88" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="O88" s="21"/>
+      <c r="O88" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="P88" s="22"/>
     </row>
-    <row r="89" spans="1:16" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="6" t="s">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A89" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="30" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="28" t="s">
         <v>129</v>
       </c>
       <c r="J89" s="6" t="s">
@@ -4788,13 +5098,15 @@
         <v>124</v>
       </c>
       <c r="L89" s="7"/>
-      <c r="M89" s="7" t="s">
+      <c r="M89" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="N89" s="17" t="s">
+      <c r="N89" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="O89" s="21"/>
+      <c r="O89" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="P89" s="22"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
@@ -4832,7 +5144,9 @@
       <c r="N90" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="O90" s="21"/>
+      <c r="O90" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="P90" s="22"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
@@ -4870,7 +5184,9 @@
       <c r="N91" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="O91" s="21"/>
+      <c r="O91" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="P91" s="22"/>
     </row>
     <row r="92" spans="1:16" ht="31.5" x14ac:dyDescent="0.45">
@@ -4910,7 +5226,9 @@
       <c r="N92" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="O92" s="21"/>
+      <c r="O92" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="P92" s="21"/>
     </row>
     <row r="93" spans="1:16" ht="31.5" x14ac:dyDescent="0.45">
@@ -4950,11 +5268,22 @@
       <c r="N93" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="O93" s="21"/>
+      <c r="O93" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="P93" s="21"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P93" xr:uid="{E783A0BD-8926-4773-940C-CA31E64305B3}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="RHEL"/>
+        <filter val="Ubuntu"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>